--- a/Filament Weight.xlsx
+++ b/Filament Weight.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="21570" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="21570" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
-  <si>
-    <t>Filament</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="66">
   <si>
     <t>Empty Spool Weight</t>
   </si>
@@ -38,12 +36,6 @@
     <t>Sunlu</t>
   </si>
   <si>
-    <t>PETG</t>
-  </si>
-  <si>
-    <t>133G</t>
-  </si>
-  <si>
     <t>Duramic</t>
   </si>
   <si>
@@ -53,9 +45,6 @@
     <t>242G</t>
   </si>
   <si>
-    <t>PLA</t>
-  </si>
-  <si>
     <t>186G</t>
   </si>
   <si>
@@ -86,15 +75,9 @@
     <t>CCTree</t>
   </si>
   <si>
-    <t>108G</t>
-  </si>
-  <si>
     <t>Overture</t>
   </si>
   <si>
-    <t>243G</t>
-  </si>
-  <si>
     <t>AMZ3D</t>
   </si>
   <si>
@@ -104,7 +87,142 @@
     <t>3D Solutech</t>
   </si>
   <si>
-    <t>172G</t>
+    <t>114G</t>
+  </si>
+  <si>
+    <t>EconoFil</t>
+  </si>
+  <si>
+    <t>170G</t>
+  </si>
+  <si>
+    <t>Filament Type</t>
+  </si>
+  <si>
+    <t>Matte Black PLA</t>
+  </si>
+  <si>
+    <t>Batch/SN</t>
+  </si>
+  <si>
+    <t>0125PLA001021/DZJ-20210109001</t>
+  </si>
+  <si>
+    <t>Yellow PLA</t>
+  </si>
+  <si>
+    <t>White PLA</t>
+  </si>
+  <si>
+    <t>Lot No. 170502</t>
+  </si>
+  <si>
+    <t>Skin PLA</t>
+  </si>
+  <si>
+    <t>Black PLA</t>
+  </si>
+  <si>
+    <t>A7113</t>
+  </si>
+  <si>
+    <t>0109PLA001021/DZJ-20210104001</t>
+  </si>
+  <si>
+    <t>232G</t>
+  </si>
+  <si>
+    <t>White PETG</t>
+  </si>
+  <si>
+    <t>02HJiAg012-3079</t>
+  </si>
+  <si>
+    <t>Black PETG</t>
+  </si>
+  <si>
+    <t>245G</t>
+  </si>
+  <si>
+    <t>112G</t>
+  </si>
+  <si>
+    <t>113G</t>
+  </si>
+  <si>
+    <t>A8012</t>
+  </si>
+  <si>
+    <t>N/A (Label removed)</t>
+  </si>
+  <si>
+    <t>A8013</t>
+  </si>
+  <si>
+    <t>111G</t>
+  </si>
+  <si>
+    <t>132G</t>
+  </si>
+  <si>
+    <t>0517005301A</t>
+  </si>
+  <si>
+    <t>700-001-1309 SH201222-5B</t>
+  </si>
+  <si>
+    <t>700-001-114 BT202012</t>
+  </si>
+  <si>
+    <t>185G</t>
+  </si>
+  <si>
+    <t>0107PLA001021 DZJ-20210106001</t>
+  </si>
+  <si>
+    <t>A8031</t>
+  </si>
+  <si>
+    <t>192G</t>
+  </si>
+  <si>
+    <t>KS-20200729001</t>
+  </si>
+  <si>
+    <t>299G</t>
+  </si>
+  <si>
+    <t>Brown PLA</t>
+  </si>
+  <si>
+    <t>145G</t>
+  </si>
+  <si>
+    <t>C0042N</t>
+  </si>
+  <si>
+    <t>181G</t>
+  </si>
+  <si>
+    <t>Red PLA</t>
+  </si>
+  <si>
+    <t>Lot No. 170508</t>
+  </si>
+  <si>
+    <t>Grey PETG+</t>
+  </si>
+  <si>
+    <t>144G</t>
+  </si>
+  <si>
+    <t>Fused Filament</t>
+  </si>
+  <si>
+    <t>204G</t>
+  </si>
+  <si>
+    <t>16Y0288B</t>
   </si>
 </sst>
 </file>
@@ -148,9 +266,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,152 +555,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>200620659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2004132126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="2">
+        <v>19110165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1011803201</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D27">
+    <sortCondition ref="A2:A27"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Filament Weight.xlsx
+++ b/Filament Weight.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="88">
   <si>
     <t xml:space="preserve">ALL WEIGHTS ARE 1KG SPOOLS UNLESS NOTED</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t xml:space="preserve">177G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176G</t>
   </si>
   <si>
     <t xml:space="preserve">Eryone</t>
@@ -402,17 +405,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.57"/>
   </cols>
   <sheetData>
@@ -708,29 +711,29 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>54</v>
@@ -738,52 +741,52 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>23</v>
@@ -794,10 +797,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>23</v>
@@ -808,49 +811,49 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>26</v>
@@ -864,48 +867,50 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>79</v>
@@ -914,69 +919,81 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="4" t="n">
-        <v>2004132126</v>
-      </c>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>19110165</v>
+        <v>2004132126</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="D41" s="4" t="n">
+        <v>19110165</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B42" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="4" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="4" t="n">
+      <c r="C43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="4" t="n">
         <v>1011803201</v>
       </c>
     </row>

--- a/Filament Weight.xlsx
+++ b/Filament Weight.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="90">
   <si>
     <t xml:space="preserve">ALL WEIGHTS ARE 1KG SPOOLS UNLESS NOTED</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t xml:space="preserve">176G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZWBL280101000</t>
   </si>
   <si>
     <t xml:space="preserve">Eryone</t>
@@ -405,13 +411,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.29"/>
@@ -725,43 +731,43 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="D24" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>57</v>
@@ -769,7 +775,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>26</v>
@@ -783,55 +789,55 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="D28" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>66</v>
@@ -839,27 +845,27 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>71</v>
@@ -867,7 +873,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>26</v>
@@ -876,41 +882,43 @@
         <v>7</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>79</v>
@@ -919,54 +927,52 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="4" t="n">
-        <v>2004132126</v>
-      </c>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>19110165</v>
+        <v>2004132126</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -977,23 +983,37 @@
         <v>41</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="D42" s="4" t="n">
+        <v>19110165</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B43" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="4" t="n">
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="4" t="n">
         <v>1011803201</v>
       </c>
     </row>
